--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2667496.191806562</v>
+        <v>-2670232.504827796</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.12985772078963</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.41994504831868</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>74.08682336413989</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>236.8373124148985</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>319.8470490290771</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>78.87534259307401</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.18421556648264</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>386.7499149090658</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>281.9502666305553</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>79.41653965146556</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>22.66509266586045</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541833</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.276945881932</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C2" t="n">
-        <v>141.276945881932</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="D2" t="n">
-        <v>141.276945881932</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="E2" t="n">
-        <v>141.276945881932</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="F2" t="n">
-        <v>141.276945881932</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4395,34 +4395,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056668</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764946</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1137.765993863677</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.765993863677</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>779.5002952569268</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.365833927799</v>
+        <v>1985.680440362237</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
         <v>1343.569531118698</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.0354892056661</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>113.0490245139452</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4723,52 +4723,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056661</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X7" t="n">
-        <v>281.0354892056661</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.0354892056661</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>884.184933127857</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>515.2224161874453</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>515.2224161874453</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>515.2224161874453</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>508.2769154382419</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1946.478191934812</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191979</v>
+        <v>1573.012433673732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.784773191979</v>
+        <v>1182.87310169792</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,19 +4869,19 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4896,13 +4896,13 @@
         <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2224.931248730034</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046731</v>
+        <v>2548.22367869607</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.4655134886754</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1314.339932754122</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1025.22159525796</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671834</v>
+        <v>770.537107052073</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302228</v>
+        <v>770.537107052073</v>
       </c>
       <c r="X10" t="n">
-        <v>352.2580926322055</v>
+        <v>770.537107052073</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.4655134886754</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,13 +5416,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6136,10 +6136,10 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,16 +7351,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184728</v>
+        <v>294.8344935184736</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184731</v>
+        <v>294.8344935184728</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985682</v>
+        <v>35.19601322587835</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>113.1600650151036</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>322.4178450521644</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22720,10 +22720,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>51.3406407157008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>178.0508199596881</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25907.59795980393</v>
+        <v>25907.597959804</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="J4" t="n">
         <v>14888.28375980082</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980083</v>
@@ -26454,7 +26454,7 @@
         <v>14888.28375980083</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980081</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233597.153975568</v>
+        <v>-1234061.450767593</v>
       </c>
       <c r="C6" t="n">
         <v>-224847.4992714697</v>
       </c>
       <c r="D6" t="n">
-        <v>-224847.4992714697</v>
+        <v>-224847.4992714696</v>
       </c>
       <c r="E6" t="n">
-        <v>-615505.3959451604</v>
+        <v>-615540.1338705958</v>
       </c>
       <c r="F6" t="n">
-        <v>-108019.9543206145</v>
+        <v>-108054.6922460502</v>
       </c>
       <c r="G6" t="n">
-        <v>-108019.9543206145</v>
+        <v>-108054.6922460502</v>
       </c>
       <c r="H6" t="n">
-        <v>-108019.9543206145</v>
+        <v>-108054.6922460502</v>
       </c>
       <c r="I6" t="n">
         <v>-137480.117607348</v>
       </c>
       <c r="J6" t="n">
-        <v>-285657.5774236988</v>
+        <v>-285657.5774236987</v>
       </c>
       <c r="K6" t="n">
-        <v>-118052.3996137162</v>
+        <v>-118052.3996137163</v>
       </c>
       <c r="L6" t="n">
         <v>-118052.3996137162</v>
@@ -26561,7 +26561,7 @@
         <v>-118052.3996137162</v>
       </c>
       <c r="P6" t="n">
-        <v>-118052.3996137162</v>
+        <v>-118052.3996137163</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>293.7159807266079</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>277.5986075140867</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.45595448819978</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>145.0930576573633</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>66.3908896269765</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>88.37147850555382</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>86.06729358864621</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>24.79778786388817</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>67.29070208685766</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.83028144716228</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>198.0836033313515</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420051</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420053</v>
+        <v>544.5140226420051</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9556134883069083</v>
+        <v>14.25823202432846</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
